--- a/data/financial_statements/sofp/WFC.xlsx
+++ b/data/financial_statements/sofp/WFC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2210 +584,2264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>313348000000</v>
+      </c>
+      <c r="C2">
         <v>307061000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>299843000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>356331000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>388718000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>429437000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>427049000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>439019000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>405379000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>389327000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>416471000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>317699000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>323123000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>330895000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>346754000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>317967000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>323483000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>308182000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>309235000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>335811000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>353596000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>380715000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>368561000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>408771000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>361164000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>403558000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>396021000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>392789000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>354056000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>346100000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>332170000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>390388000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>356255000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>347719000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>331028000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>306265000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>296525000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>261167000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>225223000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>222295000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1263338000000</v>
+      </c>
+      <c r="C3">
         <v>1249830000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1241465000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1276458000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1295239000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1303558000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1289795000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1319097000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1310884000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1314950000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1366394000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1339957000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1300156000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1303075000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1311119000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1272350000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1283985000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1261451000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1268224000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1294271000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1320563000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1341676000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1339874000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1374083000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1343738000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1380907000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1365664000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1346747000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1278952000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1259944000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1234943000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1263730000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1226745000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1203391000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1177695000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1135337000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1121205000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1083932000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1050028000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1052446000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>8350000000</v>
+      </c>
+      <c r="C4">
         <v>8493000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8444000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8473000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8571000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8599000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8745000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8760000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8895000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8977000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9025000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9108000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9309000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>9315000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>9435000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>8825000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8920000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8802000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>8882000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8828000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>8847000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8449000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8403000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>8320000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8333000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8322000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8289000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>8349000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8704000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8800000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>8692000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8696000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>8743000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8768000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>8977000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>9020000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>9156000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>9120000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>9190000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>9263000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>475067000000.0001</v>
+      </c>
+      <c r="C5">
         <v>475829000000.0001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>489389000000.0001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>519999000000.0001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>522152000000.0001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>514576000000.0001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>515385000000.0001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>493023000000.0001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>486120000000.0001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>454337000000.0001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>450395000000.0001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>475185000000.0001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>485633000000.0001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>488299000000.0001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>473396000000.0001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>471529000000.0001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>469848000000.0001</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>468850000000.0001</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>467398000000.0001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>472037000000.0001</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>478239000000.0001</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>414633000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>409594000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>407560000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>407947000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>390832000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>353426000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>334899000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>347555000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>345074000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>340769000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>324736000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>312925000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>289009000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>279069000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>270327000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>264353000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>259399000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>249439000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>248160000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>35653000000</v>
+      </c>
+      <c r="C6">
         <v>36199000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>35564000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>34934000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33369000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>34339000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>34203000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35122000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>33829000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>34067000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>34565000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>35913000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>39337000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>38857000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>39918000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>41183000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>42510000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>43819000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>43247000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>42897000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>41636000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>41325000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>40761000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>41276000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>41058000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>38476000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>38712000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>39695000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>39252000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>38739000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>39628000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>38696000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>39685000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>40960000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>40801000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>41809000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>42446000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>41342000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>40998000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>38879000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>98608000000</v>
+      </c>
+      <c r="C7">
         <v>107394000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>106280000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>99845000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88737000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>93829000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>97868000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>103541000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>113183000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>109889000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>108387000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>121186000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>93120000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>104404000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>89520000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>93905000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>90620000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>90059000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>91949000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>97355000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>102472000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>128856000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>132239000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>120325000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>129039000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>123587000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>123144000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>119492000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>113169000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>98708000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>96585000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>101879000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>99057000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>94727000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>92332000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>90214000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>86342000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>94262000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>90908000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>87886000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>617678000000.0001</v>
+      </c>
+      <c r="C8">
         <v>627915000000.0001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>639677000000.0001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>663251000000.0001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>652829000000.0001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>651343000000.0001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>656201000000.0001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>640446000000.0001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>642027000000.0001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>607270000000.0001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>602372000000.0001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>641392000000.0001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>627399000000.0001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>640875000000.0001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>612269000000.0001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>615442000000.0001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>611898000000.0001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>611530000000.0001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>611476000000.0001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>621117000000.0001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>631194000000.0001</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>593263000000.0001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>590997000000.0001</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>577481000000.0001</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>586377000000.0001</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>561217000000.0001</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>523571000000.0001</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>502435000000.0001</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>508680000000.0001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>491321000000.0001</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>485674000000.0001</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>474007000000.0001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>460410000000.0001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>433464000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>421179000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>411370000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>402297000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>404123000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>390535000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>384188000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1881016000000</v>
+      </c>
+      <c r="C9">
         <v>1877745000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1881142000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1939709000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1948068000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1954901000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1945996000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1959543000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1952911000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1922220000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1968766000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1981349000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1927555000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1943950000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1923388000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1887792000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1895883000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1872981000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1879700000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1915388000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1951757000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1934939000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1930871000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1951564000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1930115000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1942124000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1889235000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1849182000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1787632000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1751265000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1720617000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1737737000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1687155000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1636855000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1598874000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1546707000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1523502000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1488055000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1440563000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1436634000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>51145000000</v>
+      </c>
+      <c r="C10">
         <v>48382000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>37075000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>33601000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>34409000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>41980000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>45635000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>58920000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>58999000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>55224000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>60485000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>92289000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>104512000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>123908000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>115344000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>106597000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>105787000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>105451000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>104496000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>97207000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>103256000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>93811000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>95356000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>94871000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>96781000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>124668000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>120258000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>107703000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>97528000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>88069000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>82963000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>77697000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>63518000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>62927000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>61849000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>57061000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>53883000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>53851000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>56983000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>60693000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1383985000000</v>
+      </c>
+      <c r="C11">
         <v>1398151000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1425153000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1481354000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1482479000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1470379000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1440472000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1437119000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1404381000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1383215000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1410711000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1376532000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1322626000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1308495000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1288426000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1264013000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1286170000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1266594000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1268864000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1303689000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1335991000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1306706000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1305830000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1325444000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1306079000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1275894000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1245473000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1241490000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1223312000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1202179000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1185828000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1196663000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1168310000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1130625000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1118577000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1094576000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1079177000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1041871000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1021585000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1010733000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>69056000000</v>
+      </c>
+      <c r="C12">
         <v>72991000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>71662000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>74229000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>70957000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>75513000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>72555000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>76914000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>74360000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>72271000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>75159000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>76238000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>75163000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>76532000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>69706000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>74717000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>69317000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>71348000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>72480000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>73397000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>70615000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>79208000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>73035000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>59831000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>57189000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>82769000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>76916000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>73597000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>59445000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>81700000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>81399000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>90121000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>86122000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>75727000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>69021000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>65179000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>66436000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>72308000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>74843000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>75622000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>51872000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>43885000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>44636000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>51128000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>44830000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>57281000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>75717000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>91270000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>59539000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>72073000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>116443000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1504186000000</v>
+      </c>
+      <c r="C14">
         <v>1519524000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1533890000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1589184000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1587845000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1587872000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1558662000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1572953000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1537740000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1510710000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1546355000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1545059000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1502301000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1508935000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1473476000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1445327000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1461274000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1443393000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1445840000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1474293000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1509862000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1479725000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1474221000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1480146000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1460049000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1483331000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1442647000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1422790000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1380285000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1371948000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1350190000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1364481000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1317950000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1269279000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1249447000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1216816000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1199496000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1168030000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1153411000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1147048000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>174870000000</v>
+      </c>
+      <c r="C15">
         <v>156412000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>150291000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>153337000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>160689000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>162982000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>179656000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>183312000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>212950000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>215711000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>230921000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>237342000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>228191000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>230651000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>241476000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>236339000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>229044000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>221323000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>219284000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>227302000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>225020000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>238893000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>238869000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>256468000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>255077000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>254835000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>243927000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>227888000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>199536000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>185274000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>179751000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>183292000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>183943000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>184586000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>167878000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>153422000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>152998000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>151212000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>123375000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>126191000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>20085000000</v>
+      </c>
+      <c r="C16">
         <v>23400000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>17168000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15499000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>9424000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>12976000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>14551000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>14930000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>16509000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>13767000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>11368000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>15618000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9079000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>9948000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>8399000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>7393000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>8499000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8586000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>8507000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>7883000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>8796000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>9497000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>11636000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>12461000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>14492000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>13920000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>194955000000</v>
+      </c>
+      <c r="C17">
         <v>179812000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>167459000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>168836000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>170113000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>175958000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>194207000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>198242000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>229459000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>229478000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>242289000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>252960000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>237270000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>240599000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>249875000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>243732000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>237543000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>229909000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>227791000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>235185000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>233816000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>248390000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>250505000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>268929000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>269569000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>254835000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>243927000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>227888000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>213456000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>185274000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>179751000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>183292000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>183943000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>184586000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>167878000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>153422000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>152998000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>151212000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>123375000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>126191000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>1699141000000</v>
+      </c>
+      <c r="C18">
         <v>1699336000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1701349000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1758020000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1757958000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1763830000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1752869000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1771195000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1767199000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1740188000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1788644000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1798019000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1739571000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1749534000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1723351000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1689059000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1698817000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1673302000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1673631000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1709478000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1743678000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1728115000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1724726000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1749075000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1729618000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1738166000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1686574000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1650678000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1593741000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1557222000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1529941000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1547773000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1501893000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1453865000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1417325000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1370238000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1352494000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1319242000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1276786000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1273239000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>60319000000</v>
+      </c>
+      <c r="C19">
         <v>60216000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>60024000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>59899000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>60196000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>60134000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>60018000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>59854000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>60197000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>60035000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>59923000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>59849000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>61049000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>60866000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>60625000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>60409000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>60685000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>60738000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>59644000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>60399000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>60893000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>60759000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>60689000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>60585000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>60234000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>60685000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>60691000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>60602000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>60714000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>60998000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>60154000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>59980000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>60537000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>60100000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>59926000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>60618000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>60296000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>60188000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>59945000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>60136000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>20057000000</v>
+        <v>19448000000</v>
       </c>
       <c r="C20">
         <v>20057000000</v>
@@ -2685,114 +2853,117 @@
         <v>20057000000</v>
       </c>
       <c r="F20">
+        <v>20057000000</v>
+      </c>
+      <c r="G20">
         <v>20270000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20820000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21170000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>21136000000</v>
-      </c>
-      <c r="J20">
-        <v>21098000000</v>
       </c>
       <c r="K20">
         <v>21098000000</v>
       </c>
       <c r="L20">
+        <v>21098000000</v>
+      </c>
+      <c r="M20">
         <v>21347000000</v>
-      </c>
-      <c r="M20">
-        <v>21549000000</v>
       </c>
       <c r="N20">
         <v>21549000000</v>
       </c>
       <c r="O20">
+        <v>21549000000</v>
+      </c>
+      <c r="P20">
         <v>23021000000</v>
-      </c>
-      <c r="P20">
-        <v>23214000000</v>
       </c>
       <c r="Q20">
         <v>23214000000</v>
       </c>
       <c r="R20">
+        <v>23214000000</v>
+      </c>
+      <c r="S20">
         <v>23482000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>25737000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>26227000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>25358000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>25576000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>25785000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>25501000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>24551000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>24594000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>24830000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>24051000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>22214000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>22424000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>21649000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>21998000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>19213000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>19379000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>18749000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>17179000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>16267000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>15549000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>13988000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>14412000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>9136000000</v>
@@ -2911,1224 +3082,1254 @@
       <c r="AN21">
         <v>9136000000</v>
       </c>
+      <c r="AO21">
+        <v>9136000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>187649000000</v>
+      </c>
+      <c r="C22">
         <v>186551000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>184475000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>182623000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>180322000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>175709000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>171765000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>166772000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>162683000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>160913000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>159952000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>165308000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>166697000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>166320000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>164551000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>160776000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>158163000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>154576000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>150803000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>147928000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>145263000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>141761000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>139524000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>136032000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>133075000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>130288000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>127076000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>123891000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>120866000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>117593000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>114093000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>110676000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>107040000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>103494000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>99926000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>96368000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>92361000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>88625000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>84923000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>81264000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>82853000000</v>
+      </c>
+      <c r="C23">
         <v>84781000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>84906000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>85059000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>79757000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>74169000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>69038000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>67589000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>67791000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>68384000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>69050000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>70215000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>68831000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>61785000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>54775000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>50519000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>47194000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>40538000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>32620000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>31246000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>29892000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>27772000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>25675000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>24030000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>22713000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>22247000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>21068000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>19687000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>18867000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>17899000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>15707000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>14556000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>13690000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>11206000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>9271000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>8206000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>8104000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7290000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>5858000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6036000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>162427000000</v>
+      </c>
+      <c r="C24">
         <v>158352000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>159736000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>161632000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>170053000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>170801000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>172307000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>167178000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>164576000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>160934000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>159024000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>161983000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>166435000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>172867000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>177016000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>175519000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>173852000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>176197000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>180332000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>179683000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>182721000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>181248000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>180360000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>176988000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>175946000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>179364000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>177831000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>174453000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>171677000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>171619000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>169027000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>167966000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>166049000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>163611000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>162800000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>159290000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>154741000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>153264000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>149789000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>148983000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>181875000000</v>
+      </c>
+      <c r="C25">
         <v>178409000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>179793000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>181689000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>190110000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>191071000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>193127000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>188348000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>185712000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>182032000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>180122000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>183330000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>187984000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>194416000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>200037000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>198733000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>197066000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>199679000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>206069000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>205910000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>208079000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>206824000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>206145000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>202489000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>200497000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>203958000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>202661000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>198504000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>193891000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>194043000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>190676000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>189964000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>185262000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>182990000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>181549000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>176469000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>171008000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>168813000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>163777000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>163395000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1881016000000</v>
+      </c>
+      <c r="C26">
         <v>1877745000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1881142000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1939709000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1948068000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1954901000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1945996000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1959543000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1952911000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1922220000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1968766000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1981349000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1927555000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1943950000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1923388000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1887792000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1895883000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1872981000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1879700000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1915388000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1951757000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1934939000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1930871000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1951564000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1930115000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1942124000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1889235000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1849182000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1787632000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1751265000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1720617000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1737737000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1687155000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1636855000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1598874000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1546707000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1523502000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1488055000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1440563000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1436634000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3833800000</v>
+      </c>
+      <c r="C27">
         <v>3795439000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3792964000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3789895000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3885801000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3996921000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4107998000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4141120000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4144012000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4132517000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4119559000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4096410000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4134426000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>4269142000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4419591000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>4511948000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>4581254000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>4711561000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4849068000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4873882000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4891617000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4927871000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4966770000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>4996735000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5016109000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>5023889000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>5048494000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>5075903000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5092129000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>5108474000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>5145235000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>5162942000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>5170349000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>5215008000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>5249895000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5265727000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>5257163000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5273736000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>5302157000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>5288773000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>5300000</v>
-      </c>
-      <c r="C28">
-        <v>5324000</v>
       </c>
       <c r="D28">
         <v>5324000</v>
       </c>
       <c r="E28">
+        <v>5324000</v>
+      </c>
+      <c r="F28">
         <v>5300000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>5500000</v>
-      </c>
-      <c r="G28">
-        <v>5600000</v>
       </c>
       <c r="H28">
         <v>5600000</v>
       </c>
       <c r="I28">
+        <v>5600000</v>
+      </c>
+      <c r="J28">
         <v>5496000</v>
-      </c>
-      <c r="J28">
-        <v>5495000</v>
       </c>
       <c r="K28">
         <v>5495000</v>
       </c>
       <c r="L28">
+        <v>5495000</v>
+      </c>
+      <c r="M28">
         <v>5744000</v>
-      </c>
-      <c r="M28">
-        <v>7492000</v>
       </c>
       <c r="N28">
         <v>7492000</v>
       </c>
       <c r="O28">
+        <v>7492000</v>
+      </c>
+      <c r="P28">
         <v>9184000</v>
-      </c>
-      <c r="P28">
-        <v>9377000</v>
       </c>
       <c r="Q28">
         <v>9377000</v>
       </c>
       <c r="R28">
+        <v>9377000</v>
+      </c>
+      <c r="S28">
         <v>9645000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>12056000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>12546000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>11677000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>11896000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>12104000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>12483000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>11533000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>11576000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>11812000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>12137000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>11260000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>11305000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>11654000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>12004000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>11139000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>11305000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>11442000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>11793000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>10881000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>10969000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>11064000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>11488000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>146222000000</v>
+      </c>
+      <c r="C29">
         <v>142210000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>144229000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>146755000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>156741000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>156732000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>158924000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>153226000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>151883000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>147965000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>145557000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>147417000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>148647000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>155559000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>160119000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>157550000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>154556000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>155860000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>162822000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>163013000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>166443000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>165499000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>165384000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>161213000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>159439000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>165482000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>163949000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>158809000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>154639000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>155304000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>151048000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>151268000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>145577000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>142030000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>140748000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>134660000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>128562000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>127471000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>122779000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>124516000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-138478000000</v>
+      </c>
+      <c r="C30">
         <v>-98777000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-105667000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-158358000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-176901000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-221625000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-190112000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-179990000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-101159000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-114077000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-113477000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>36086000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-94932000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-100244000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-105278000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-81628000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-94439000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-86859000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-89951000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-108509000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-128576000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-141822000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-129692000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-152303000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-106087000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-148723000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-152094000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-164901000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-154520000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-160826000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-152419000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-207096000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-172312000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-163133000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-163150000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-152843000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-143527000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-109955000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-101848000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-96104000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>174870000000</v>
+      </c>
+      <c r="C31">
         <v>208284000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>194176000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>197973000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>211817000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>207812000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>236937000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>259029000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>304220000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>275250000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>302994000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>353785000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>228191000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>230651000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>241476000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>236339000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>229044000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>221323000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>219284000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>227302000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>225020000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>238893000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>238869000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>256468000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>255077000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>254835000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>243927000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>227888000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>199536000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>185274000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>179751000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>183292000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>183943000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>184586000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>167878000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>153422000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>152998000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>151212000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>123375000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>126191000000</v>
       </c>
     </row>
